--- a/resources/experiment 1/metrics/MAPE/upto time/Ictus (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Ictus (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>544260125102889.6</v>
+        <v>544260125102889.7</v>
       </c>
       <c r="C2" t="n">
-        <v>544260125102889.6</v>
+        <v>544260125102889.7</v>
       </c>
       <c r="D2" t="n">
-        <v>544260125102889.6</v>
+        <v>544260125102889.7</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>818482420324.5737</v>
+        <v>2980449616755.818</v>
       </c>
       <c r="C3" t="n">
-        <v>818482420324.574</v>
+        <v>14823470709594.77</v>
       </c>
       <c r="D3" t="n">
-        <v>818482420324.574</v>
+        <v>1549366279204.544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6028667616280.214</v>
+        <v>548168968728.8655</v>
       </c>
       <c r="C4" t="n">
-        <v>6028667616280.213</v>
+        <v>2507760325856.404</v>
       </c>
       <c r="D4" t="n">
-        <v>6028667616280.213</v>
+        <v>704788674079.952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>922092984897.838</v>
+        <v>82334981463217.02</v>
       </c>
       <c r="C5" t="n">
-        <v>922092984897.8383</v>
+        <v>81646593419727.94</v>
       </c>
       <c r="D5" t="n">
-        <v>922092984897.8383</v>
+        <v>107426465640572.4</v>
       </c>
     </row>
   </sheetData>
